--- a/data/trans_orig/CRON_MORT_INDEX-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CRON_MORT_INDEX-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>0,6</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 0,57</t>
+          <t>0,29; 0,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,67</t>
+          <t>0,41; 0,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,57</t>
+          <t>0,35; 0,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,31</t>
+          <t>0,39; 0,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 0,5</t>
+          <t>0,28; 0,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 0,81</t>
+          <t>0,42; 0,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,54</t>
+          <t>0,34; 0,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,29</t>
+          <t>0,53; 0,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 0,51</t>
+          <t>0,3; 0,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,72</t>
+          <t>0,43; 0,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 0,53</t>
+          <t>0,36; 0,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,29</t>
+          <t>0,52; 0,72</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,28</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,2</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>0,29</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,26</t>
+          <t>0,22; 0,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>0,09; 0,21</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 0,21</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>0,24; 0,32</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 0,21</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 0,24</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,22</t>
+          <t>0,15; 0,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
+          <t>0,11; 0,32</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 0,2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>0,26; 0,34</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 0,17</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 0,17</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,23</t>
+          <t>0,19; 0,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
+          <t>0,12; 0,23</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 0,2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>0,26; 0,32</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 0,18</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 0,2</t>
         </is>
       </c>
     </row>
@@ -941,57 +941,57 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,21</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>0,1</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>0,22</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,17</t>
+          <t>0,12; 0,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,26</t>
+          <t>0,16; 0,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,23</t>
+          <t>0,08; 0,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,17</t>
+          <t>0,17; 0,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,13</t>
+          <t>0,09; 0,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,26</t>
+          <t>0,1; 0,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,14</t>
+          <t>0,07; 0,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>0,19; 0,26</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 0,14</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,14; 0,19</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>0,08; 0,12</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 0,14</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>0,19; 0,25</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 0,17</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 0,13</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,29</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>0,21</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>0,31</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,29</t>
+          <t>0,21; 0,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,32</t>
+          <t>0,14; 0,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,26</t>
+          <t>0,18; 0,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,23</t>
+          <t>0,26; 0,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,25</t>
+          <t>0,16; 0,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
+          <t>0,17; 0,3</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 0,21</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>0,29; 0,36</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 0,23</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 0,18</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,26</t>
+          <t>0,19; 0,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
+          <t>0,17; 0,25</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 0,21</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>0,29; 0,34</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 0,24</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 0,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CRON_MORT_INDEX-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CRON_MORT_INDEX-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de cronicidad física (enfermedades más mortales 1-4)</t>
+          <t>Índice de cronicidad física (enfermedades más mortales 1-4) (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CRON_MORT_INDEX-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CRON_MORT_INDEX-Estudios-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,42</t>
+          <t>0,27; 0,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,57</t>
+          <t>0,41; 0,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,66</t>
+          <t>0,39; 0,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,37</t>
+          <t>0,28; 0,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 0,84</t>
+          <t>0,53; 0,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,37</t>
+          <t>0,29; 0,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 0,52</t>
+          <t>0,43; 0,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 0,72</t>
+          <t>0,51; 0,71</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,26</t>
+          <t>0,2; 0,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,21</t>
+          <t>0,1; 0,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,32</t>
+          <t>0,24; 0,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,32</t>
+          <t>0,11; 0,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,34</t>
+          <t>0,25; 0,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,22</t>
+          <t>0,18; 0,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,23</t>
+          <t>0,13; 0,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,27 +956,27 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>0,11</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,18</t>
+          <t>0,1; 0,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,13</t>
+          <t>0,08; 0,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,26</t>
+          <t>0,18; 0,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,14</t>
+          <t>0,1; 0,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,25</t>
+          <t>0,19; 0,24</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,25</t>
+          <t>0,19; 0,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,19</t>
+          <t>0,16; 0,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,3</t>
+          <t>0,16; 0,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,22</t>
+          <t>0,18; 0,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">

--- a/data/trans_orig/CRON_MORT_INDEX-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CRON_MORT_INDEX-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,33</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0,32</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,47</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,32</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,4; 0,56</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 0,68</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 0,48</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0,27; 0,4</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,41; 0,58</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 0,48</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 0,68</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>0,42; 0,53</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 0,82</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 0,45</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>0,28; 0,36</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 0,52</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 0,45</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 0,82</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>0,43; 0,52</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 0,71</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 0,44</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>0,29; 0,36</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 0,53</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 0,44</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 0,71</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,22</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>0,16</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>0,19</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,17; 0,22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 0,33</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 0,21</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>0,2; 0,24</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 0,21</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 0,21</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,24; 0,33</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>0,14; 0,18</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 0,34</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 0,2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>0,15; 0,18</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 0,33</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 0,2</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 0,34</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>0,16; 0,19</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 0,32</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 0,2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>0,18; 0,21</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 0,24</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 0,2</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 0,32</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,13</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>0,1</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>0,1</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>0,11</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,17; 0,26</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 0,25</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,13</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>0,1; 0,16</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 0,25</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,13</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 0,25</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>0,11; 0,16</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 0,26</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,12</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>0,08; 0,12</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 0,16</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,12</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 0,26</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>0,15; 0,2</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 0,24</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,12</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>0,1; 0,13</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 0,19</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,12</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 0,24</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,21</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>0,21</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>0,17</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>0,22</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>0,19</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>0,19</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,21; 0,25</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 0,33</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 0,22</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>0,19; 0,23</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 0,25</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 0,22</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 0,33</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>0,19; 0,23</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 0,36</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 0,21</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>0,16; 0,18</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 0,29</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 0,23</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 0,34</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
         <is>
           <t>0,18; 0,21</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 0,36</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>0,18; 0,2</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 0,25</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 0,21</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 0,34</t>
         </is>
       </c>
     </row>
